--- a/docs/graphs.xlsx
+++ b/docs/graphs.xlsx
@@ -1,21 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Geração" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+  <si>
+    <t>Algoritmos de resolução</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Tentativa</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>6*6</t>
+  </si>
+  <si>
+    <t>8*8</t>
+  </si>
+  <si>
+    <t>10*10</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>tamanho</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>6*6 slow</t>
+  </si>
+  <si>
+    <t>8*8 slow</t>
+  </si>
+  <si>
+    <t>10*10 slow</t>
+  </si>
+  <si>
+    <t>6*6 fast</t>
+  </si>
+  <si>
+    <t>8*8 fast</t>
+  </si>
+  <si>
+    <t>10*10 fast</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +86,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,19 +118,1992 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geração!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>med</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geração!$K$7:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6*6 slow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6*6 fast</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8*8 slow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8*8 fast</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10*10 slow</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10*10 fast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geração!$L$7:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23890000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3378000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.923399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73570000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geração!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geração!$K$7:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6*6 slow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6*6 fast</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8*8 slow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8*8 fast</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10*10 slow</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10*10 fast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geração!$M$7:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.5210132417844836E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1649658092772606E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75679159027509746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3342080464122188E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.284841004550772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3488017768869278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="471145304"/>
+        <c:axId val="471147264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="471145304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471147264"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471147264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471145304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geração!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>med</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geração!$K$7:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6*6 slow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6*6 fast</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8*8 slow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8*8 fast</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10*10 slow</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10*10 fast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geração!$L$7:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23890000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3378000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.923399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73570000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geração!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geração!$K$7:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6*6 slow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6*6 fast</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8*8 slow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8*8 fast</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10*10 slow</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10*10 fast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geração!$M$7:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.5210132417844836E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1649658092772606E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75679159027509746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3342080464122188E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.284841004550772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3488017768869278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="483441352"/>
+        <c:axId val="483444096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="483441352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483444096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483444096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483441352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136151</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>81394</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +2145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +2180,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +2388,751 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <f>C18</f>
+        <v>0.23890000000000003</v>
+      </c>
+      <c r="M7">
+        <f>C19</f>
+        <v>8.5210132417844836E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <f>G18</f>
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="M8">
+        <f>G19</f>
+        <v>8.1649658092772606E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F9">
+        <f>F8+1</f>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <f>C33</f>
+        <v>1.3378000000000001</v>
+      </c>
+      <c r="M9">
+        <f>C34</f>
+        <v>0.75679159027509746</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" ref="B10:B17" si="0">B9+1</f>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F15" si="1">F9+1</f>
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <f>G33</f>
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="M10">
+        <f>G34</f>
+        <v>1.3342080464122188E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <f>C48</f>
+        <v>12.923399999999997</v>
+      </c>
+      <c r="M11">
+        <f>C49</f>
+        <v>10.284841004550772</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <f>G48</f>
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="M12">
+        <f>G49</f>
+        <v>1.3488017768869278</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0.24</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.217</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B15+1</f>
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>0.18</v>
+      </c>
+      <c r="F16">
+        <f>F15+1</f>
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="2">F16+1</f>
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C8:C17)</f>
+        <v>0.23890000000000003</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(G8:G17)</f>
+        <v>7.000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <f>_xlfn.STDEV.S(C8:C17)</f>
+        <v>8.5210132417844836E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <f>_xlfn.STDEV.S(G8:G17)</f>
+        <v>8.1649658092772606E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>B23+1</f>
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1.292</v>
+      </c>
+      <c r="F24">
+        <f>F23+1</f>
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" ref="B25:B32" si="3">B24+1</f>
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1.347</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F32" si="4">F24+1</f>
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1.365</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1.492</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>B30+1</f>
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F31">
+        <f>F30+1</f>
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" ref="B32" si="5">B31+1</f>
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="6">F31+1</f>
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <f>AVERAGE(C23:C32)</f>
+        <v>1.3378000000000001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <f>AVERAGE(G23:G32)</f>
+        <v>2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <f>_xlfn.STDEV.S(C23:C32)</f>
+        <v>0.75679159027509746</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <f>_xlfn.STDEV.S(G23:G32)</f>
+        <v>1.3342080464122188E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>5.2329999999999997</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>B38+1</f>
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>31.064</v>
+      </c>
+      <c r="F39">
+        <f>F38+1</f>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1.3280000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" ref="B40:B47" si="7">B39+1</f>
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>16.577000000000002</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F47" si="8">F39+1</f>
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>4.01</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>4.4050000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>25.381</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>20.891999999999999</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>3.28</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>B45+1</f>
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>5.5469999999999997</v>
+      </c>
+      <c r="F46">
+        <f>F45+1</f>
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" ref="B47" si="9">B46+1</f>
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>14.452999999999999</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47" si="10">F46+1</f>
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <f>AVERAGE(C38:C47)</f>
+        <v>12.923399999999997</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <f>AVERAGE(G38:G47)</f>
+        <v>0.73570000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <f>_xlfn.STDEV.S(C38:C47)</f>
+        <v>10.284841004550772</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <f>_xlfn.STDEV.S(G38:G47)</f>
+        <v>1.3488017768869278</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/graphs.xlsx
+++ b/docs/graphs.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Geração" sheetId="1" r:id="rId1"/>
+    <sheet name="Solução" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
-  <si>
-    <t>Algoritmos de resolução</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
   <si>
     <t>Slow</t>
   </si>
@@ -46,15 +44,6 @@
     <t>STDEV</t>
   </si>
   <si>
-    <t>tamanho</t>
-  </si>
-  <si>
-    <t>med</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
     <t>6*6 slow</t>
   </si>
   <si>
@@ -71,6 +60,54 @@
   </si>
   <si>
     <t>10*10 fast</t>
+  </si>
+  <si>
+    <t>Tabuleiro</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Desv. Padrão</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>12*12</t>
+  </si>
+  <si>
+    <t>Algoritmos de geração</t>
+  </si>
+  <si>
+    <t>Solução</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[enum]</t>
+  </si>
+  <si>
+    <t>14*14</t>
+  </si>
+  <si>
+    <t>Sem "enum"</t>
+  </si>
+  <si>
+    <t>Com "enum"</t>
+  </si>
+  <si>
+    <t>8x8</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>12x12</t>
+  </si>
+  <si>
+    <t>14x14</t>
   </si>
 </sst>
 </file>
@@ -154,6 +191,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Tempo de execução para amostra</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> de 10 execuções</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -200,7 +267,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>med</c:v>
+                  <c:v>Média</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -278,7 +345,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>std</c:v>
+                  <c:v>Desv. Padrão</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -356,11 +423,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="471145304"/>
-        <c:axId val="471147264"/>
+        <c:overlap val="-27"/>
+        <c:axId val="401576144"/>
+        <c:axId val="401578104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="471145304"/>
+        <c:axId val="401576144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -403,15 +471,15 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471147264"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="401578104"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471147264"/>
+        <c:axId val="401578104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,15 +500,13 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -464,7 +530,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471145304"/>
+        <c:crossAx val="401576144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -560,6 +626,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Tempo de execução para amostra de 10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> testes</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -593,165 +689,134 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Geração!$L$6</c:f>
+              <c:f>Geração!$Q$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>med</c:v>
+                  <c:v>Slow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geração!$K$7:$K$12</c:f>
+              <c:f>Geração!$P$7:$P$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6*6 slow</c:v>
+                  <c:v>6*6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6*6 fast</c:v>
+                  <c:v>8*8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8*8 slow</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8*8 fast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10*10 slow</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10*10 fast</c:v>
+                  <c:v>10*10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geração!$L$7:$L$12</c:f>
+              <c:f>Geração!$Q$7:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.23890000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.000000000000001E-3</c:v>
+                  <c:v>1.3378000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3378000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>12.923399999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73570000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Geração!$M$6</c:f>
+              <c:f>Geração!$R$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>std</c:v>
+                  <c:v>Fast</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geração!$K$7:$K$12</c:f>
+              <c:f>Geração!$P$7:$P$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6*6 slow</c:v>
+                  <c:v>6*6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6*6 fast</c:v>
+                  <c:v>8*8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8*8 slow</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8*8 fast</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10*10 slow</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10*10 fast</c:v>
+                  <c:v>10*10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geração!$M$7:$M$12</c:f>
+              <c:f>Geração!$R$7:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.5210132417844836E-2</c:v>
+                  <c:v>7.000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1649658092772606E-4</c:v>
+                  <c:v>2.6700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75679159027509746</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3342080464122188E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.284841004550772</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3488017768869278</c:v>
+                  <c:v>0.73570000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -761,13 +826,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="483441352"/>
-        <c:axId val="483444096"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="401840400"/>
+        <c:axId val="401841968"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="483441352"/>
+        <c:axId val="401840400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +874,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483444096"/>
+        <c:crossAx val="401841968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -818,10 +882,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="483444096"/>
+        <c:axId val="401841968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -870,7 +933,387 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483441352"/>
+        <c:crossAx val="401840400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solução!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sem "enum"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solução!$I$4:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8x8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14x14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solução!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6300000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0587999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solução!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Com "enum"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solução!$I$4:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8x8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14x14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solução!$K$4:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1119000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="153991464"/>
+        <c:axId val="153992248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="153991464"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153992248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153992248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153991464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1031,6 +1474,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1535,7 +2018,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1643,6 +2126,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1653,6 +2141,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1684,6 +2177,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2005,6 +2501,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2041,20 +3042,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>136151</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>148197</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>302560</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2072,19 +3073,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>138546</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>5194</xdr:rowOff>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>277090</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>81394</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2094,6 +3095,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2389,10 +3425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M49"/>
+  <dimension ref="B2:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,54 +3440,63 @@
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <f>C18</f>
@@ -2461,8 +3506,19 @@
         <f>C19</f>
         <v>8.5210132417844836E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <f>L7</f>
+        <v>0.23890000000000003</v>
+      </c>
+      <c r="R7">
+        <f>L8</f>
+        <v>7.000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -2476,7 +3532,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8">
         <f>G18</f>
@@ -2486,8 +3542,19 @@
         <f>G19</f>
         <v>8.1649658092772606E-4</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <f>L9</f>
+        <v>1.3378000000000001</v>
+      </c>
+      <c r="R8">
+        <f>L10</f>
+        <v>2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>B8+1</f>
         <v>2</v>
@@ -2503,7 +3570,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <f>C33</f>
@@ -2513,8 +3580,19 @@
         <f>C34</f>
         <v>0.75679159027509746</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <f>L11</f>
+        <v>12.923399999999997</v>
+      </c>
+      <c r="R9">
+        <f>L12</f>
+        <v>0.73570000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" ref="B10:B17" si="0">B9+1</f>
         <v>3</v>
@@ -2530,7 +3608,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <f>G33</f>
@@ -2541,7 +3619,7 @@
         <v>1.3342080464122188E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2557,7 +3635,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L11">
         <f>C48</f>
@@ -2568,7 +3646,7 @@
         <v>10.284841004550772</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2584,7 +3662,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L12">
         <f>G48</f>
@@ -2595,7 +3673,7 @@
         <v>1.3488017768869278</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2611,7 +3689,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2627,7 +3705,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2643,7 +3721,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B15+1</f>
         <v>9</v>
@@ -2677,14 +3755,14 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <f>AVERAGE(C8:C17)</f>
         <v>0.23890000000000003</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <f>AVERAGE(G8:G17)</f>
@@ -2693,14 +3771,14 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <f>_xlfn.STDEV.S(C8:C17)</f>
         <v>8.5210132417844836E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19">
         <f>_xlfn.STDEV.S(G8:G17)</f>
@@ -2709,24 +3787,24 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -2761,14 +3839,14 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" ref="B25:B32" si="3">B24+1</f>
+        <f t="shared" ref="B25:B30" si="3">B24+1</f>
         <v>3</v>
       </c>
       <c r="C25">
         <v>1.347</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F32" si="4">F24+1</f>
+        <f t="shared" ref="F25:F30" si="4">F24+1</f>
         <v>3</v>
       </c>
       <c r="G25">
@@ -2889,14 +3967,14 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <f>AVERAGE(C23:C32)</f>
         <v>1.3378000000000001</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33">
         <f>AVERAGE(G23:G32)</f>
@@ -2905,14 +3983,14 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <f>_xlfn.STDEV.S(C23:C32)</f>
         <v>0.75679159027509746</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <f>_xlfn.STDEV.S(G23:G32)</f>
@@ -2921,24 +3999,24 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -2973,14 +4051,14 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f t="shared" ref="B40:B47" si="7">B39+1</f>
+        <f t="shared" ref="B40:B45" si="7">B39+1</f>
         <v>3</v>
       </c>
       <c r="C40">
         <v>16.577000000000002</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="F40:F47" si="8">F39+1</f>
+        <f t="shared" ref="F40:F45" si="8">F39+1</f>
         <v>3</v>
       </c>
       <c r="G40">
@@ -3101,14 +4179,14 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <f>AVERAGE(C38:C47)</f>
         <v>12.923399999999997</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48">
         <f>AVERAGE(G38:G47)</f>
@@ -3117,18 +4195,949 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <f>_xlfn.STDEV.S(C38:C47)</f>
         <v>10.284841004550772</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49">
         <f>_xlfn.STDEV.S(G38:G47)</f>
         <v>1.3488017768869278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <f>C16</f>
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="K4">
+        <f>F16</f>
+        <v>3.2199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <f>C31</f>
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="K5">
+        <f>F31</f>
+        <v>8.5199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <f>C46</f>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="K6">
+        <f>F46</f>
+        <v>0.2263</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>B6+1</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <f>E6+1</f>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <f>C61</f>
+        <v>5.0587999999999997</v>
+      </c>
+      <c r="K7">
+        <f>F61</f>
+        <v>5.1119000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" ref="B8:B15" si="0">B7+1</f>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E15" si="1">E7+1</f>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0.03</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B13+1</f>
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <f>E13+1</f>
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(C6:C15)</f>
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(F6:F15)</f>
+        <v>3.2199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f>_xlfn.STDEV.S(C6:C15)</f>
+        <v>1.7878913712962418E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f>_xlfn.STDEV.S(F6:F15)</f>
+        <v>1.5970806700560471E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>B21+1</f>
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0.128</v>
+      </c>
+      <c r="E22">
+        <f>E21+1</f>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" ref="B23:B28" si="2">B22+1</f>
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E28" si="3">E22+1</f>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>B28+1</f>
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E29">
+        <f>E28+1</f>
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" ref="B30" si="4">B29+1</f>
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30" si="5">E29+1</f>
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <f>AVERAGE(C21:C30)</f>
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(F21:F30)</f>
+        <v>8.5199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <f>_xlfn.STDEV.S(C21:C30)</f>
+        <v>4.5573018333219917E-2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <f>_xlfn.STDEV.S(F21:F30)</f>
+        <v>4.546256090943894E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>B36+1</f>
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E37">
+        <f>E36+1</f>
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" ref="B38:B43" si="6">B37+1</f>
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0.123</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E43" si="7">E37+1</f>
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0.127</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0.19</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>B43+1</f>
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>0.122</v>
+      </c>
+      <c r="E44">
+        <f>E43+1</f>
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" ref="B45" si="8">B44+1</f>
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="9">E44+1</f>
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <f>AVERAGE(C36:C45)</f>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <f>AVERAGE(F36:F45)</f>
+        <v>0.2263</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <f>_xlfn.STDEV.S(C36:C45)</f>
+        <v>0.12960302637070029</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <f>_xlfn.STDEV.S(F36:F45)</f>
+        <v>0.14527908008764071</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>5.9059999999999997</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>B51+1</f>
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>4.7009999999999996</v>
+      </c>
+      <c r="E52">
+        <f>E51+1</f>
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>4.8789999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" ref="B53:B58" si="10">B52+1</f>
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>4.8</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:E58" si="11">E52+1</f>
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>4.8280000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>5.2140000000000004</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>4.8659999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>4.8780000000000001</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>4.7409999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>5.4349999999999996</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>5.452</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>4.8730000000000002</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>4.9050000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>4.8419999999999996</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>4.9770000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>B58+1</f>
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>5.1310000000000002</v>
+      </c>
+      <c r="E59">
+        <f>E58+1</f>
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" ref="B60" si="12">B59+1</f>
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>4.8079999999999998</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60" si="13">E59+1</f>
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>4.9809999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <f>AVERAGE(C51:C60)</f>
+        <v>5.0587999999999997</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <f>AVERAGE(F51:F60)</f>
+        <v>5.1119000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <f>_xlfn.STDEV.S(C51:C60)</f>
+        <v>0.37426752167103378</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <f>_xlfn.STDEV.S(F51:F60)</f>
+        <v>0.4756708595937601</v>
       </c>
     </row>
   </sheetData>
